--- a/Code/Results/Cases/Case_1_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.799323232804356</v>
+        <v>6.118831537812738</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.634116456844893</v>
+        <v>9.23425552603333</v>
       </c>
       <c r="E2">
-        <v>11.10331654094943</v>
+        <v>13.70416625564193</v>
       </c>
       <c r="F2">
-        <v>22.91784663150226</v>
+        <v>32.7118824949064</v>
       </c>
       <c r="G2">
-        <v>2.08748535038076</v>
+        <v>3.653902384284682</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.02355637053902</v>
+        <v>20.14265615807181</v>
       </c>
       <c r="J2">
-        <v>6.364748369783631</v>
+        <v>9.924023894408338</v>
       </c>
       <c r="K2">
-        <v>18.12438758214999</v>
+        <v>13.07806819628019</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.77268449127897</v>
+        <v>24.61753418735297</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.354004279657214</v>
+        <v>5.963427134343079</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.26654152153465</v>
+        <v>9.170319485480816</v>
       </c>
       <c r="E3">
-        <v>10.61963823826831</v>
+        <v>13.63905738314455</v>
       </c>
       <c r="F3">
-        <v>22.49801918820658</v>
+        <v>32.7755648742236</v>
       </c>
       <c r="G3">
-        <v>2.093191957032885</v>
+        <v>3.656048007801576</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.39287588686449</v>
+        <v>20.26886351966719</v>
       </c>
       <c r="J3">
-        <v>6.254898370680302</v>
+        <v>9.931410198249292</v>
       </c>
       <c r="K3">
-        <v>16.99253009101918</v>
+        <v>12.64952747064381</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.72862157913311</v>
+        <v>24.71224037871714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.066000848408454</v>
+        <v>5.866506434745174</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.034028660744094</v>
+        <v>9.132266314600624</v>
       </c>
       <c r="E4">
-        <v>10.3175881770185</v>
+        <v>13.60173273520734</v>
       </c>
       <c r="F4">
-        <v>22.26153186799603</v>
+        <v>32.82375679531887</v>
       </c>
       <c r="G4">
-        <v>2.096800212076822</v>
+        <v>3.657435015174226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.62612344719144</v>
+        <v>20.35034102370425</v>
       </c>
       <c r="J4">
-        <v>6.190250737835713</v>
+        <v>9.937570432008439</v>
       </c>
       <c r="K4">
-        <v>16.25872773307418</v>
+        <v>12.37966002121385</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.71972330806398</v>
+        <v>24.77661982066844</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.945008888483979</v>
+        <v>5.826688235225682</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.937679715355337</v>
+        <v>9.117074653519513</v>
       </c>
       <c r="E5">
-        <v>10.19339906621352</v>
+        <v>13.5872014147616</v>
       </c>
       <c r="F5">
-        <v>22.17047532791856</v>
+        <v>32.84567430250678</v>
       </c>
       <c r="G5">
-        <v>2.098297567757594</v>
+        <v>3.658017786141091</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.72283391282097</v>
+        <v>20.38454883317966</v>
       </c>
       <c r="J5">
-        <v>6.164622589077168</v>
+        <v>9.940489595169689</v>
       </c>
       <c r="K5">
-        <v>15.94994637138415</v>
+        <v>12.2681464675158</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.72046902408594</v>
+        <v>24.80441632317567</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.924700438996928</v>
+        <v>5.820058668959794</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.921588322521735</v>
+        <v>9.114571492559245</v>
       </c>
       <c r="E6">
-        <v>10.17271655608834</v>
+        <v>13.58482982320144</v>
       </c>
       <c r="F6">
-        <v>22.15567485974497</v>
+        <v>32.84945110662441</v>
       </c>
       <c r="G6">
-        <v>2.098547851305387</v>
+        <v>3.658115616702612</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.73899374483107</v>
+        <v>20.3902898009232</v>
       </c>
       <c r="J6">
-        <v>6.160410638842916</v>
+        <v>9.940999015138296</v>
       </c>
       <c r="K6">
-        <v>15.89808532693014</v>
+        <v>12.24954148333583</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.72085113929614</v>
+        <v>24.80912606215903</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.064383741842177</v>
+        <v>5.865970661870869</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.032735567041656</v>
+        <v>9.132060141560402</v>
       </c>
       <c r="E7">
-        <v>10.31591753237428</v>
+        <v>13.60153399748907</v>
       </c>
       <c r="F7">
-        <v>22.26028239842403</v>
+        <v>32.82404316521678</v>
       </c>
       <c r="G7">
-        <v>2.096820295845212</v>
+        <v>3.657442803476379</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.62742095721948</v>
+        <v>20.35079828894634</v>
       </c>
       <c r="J7">
-        <v>6.189902192610078</v>
+        <v>9.937608145399492</v>
       </c>
       <c r="K7">
-        <v>16.25460284800353</v>
+        <v>12.37816213278513</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.71971592324399</v>
+        <v>24.77698837899966</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.6488212142133</v>
+        <v>6.06559209219463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.508856528061811</v>
+        <v>9.211968235785067</v>
       </c>
       <c r="E8">
-        <v>10.93769359232356</v>
+        <v>13.68117354424795</v>
       </c>
       <c r="F8">
-        <v>22.76865420649676</v>
+        <v>32.73194943819577</v>
       </c>
       <c r="G8">
-        <v>2.089431767843624</v>
+        <v>3.654627786661323</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.14957011265599</v>
+        <v>20.18534693898102</v>
       </c>
       <c r="J8">
-        <v>6.326298398080398</v>
+        <v>9.926233567558622</v>
       </c>
       <c r="K8">
-        <v>17.74218731138151</v>
+        <v>12.93179533244191</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.75360833212318</v>
+        <v>24.64889293539322</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.678161283514228</v>
+        <v>6.44285750013217</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.384210749241914</v>
+        <v>9.377644497397455</v>
       </c>
       <c r="E9">
-        <v>12.11030774476444</v>
+        <v>13.85783390526089</v>
       </c>
       <c r="F9">
-        <v>23.93533027934206</v>
+        <v>32.6237620485286</v>
       </c>
       <c r="G9">
-        <v>2.075736700959725</v>
+        <v>3.649657110087038</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.26257751280743</v>
+        <v>19.89239192791281</v>
       </c>
       <c r="J9">
-        <v>6.615422904336357</v>
+        <v>9.916809900200848</v>
       </c>
       <c r="K9">
-        <v>20.35140034329433</v>
+        <v>13.95785667248827</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.97246902145914</v>
+        <v>24.44734872922013</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.36241223387996</v>
+        <v>6.708570815089224</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.98734489756805</v>
+        <v>9.504042758453933</v>
       </c>
       <c r="E10">
-        <v>12.93630759421944</v>
+        <v>13.99931269758982</v>
       </c>
       <c r="F10">
-        <v>24.89618183518889</v>
+        <v>32.58874382072103</v>
       </c>
       <c r="G10">
-        <v>2.066107861205412</v>
+        <v>3.646336582321922</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.63949320976364</v>
+        <v>19.69617512186268</v>
       </c>
       <c r="J10">
-        <v>6.840270528789111</v>
+        <v>9.917718438226348</v>
       </c>
       <c r="K10">
-        <v>22.08200303290877</v>
+        <v>14.66810387590947</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.2369851235903</v>
+        <v>24.32983930236351</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.658023064424123</v>
+        <v>6.826436198147164</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.25240426131681</v>
+        <v>9.56238392400606</v>
       </c>
       <c r="E11">
-        <v>13.30329869230925</v>
+        <v>14.06602591469744</v>
       </c>
       <c r="F11">
-        <v>25.35566322726592</v>
+        <v>32.58251824237121</v>
       </c>
       <c r="G11">
-        <v>2.061809319724135</v>
+        <v>3.644897188565073</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.36182726419527</v>
+        <v>19.61100173081508</v>
       </c>
       <c r="J11">
-        <v>6.945102730343365</v>
+        <v>9.919825584772003</v>
       </c>
       <c r="K11">
-        <v>22.82934532000132</v>
+        <v>14.98046594786861</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.38196690720911</v>
+        <v>24.2830786770798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.767714611084905</v>
+        <v>6.870597011976444</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.351399913965277</v>
+        <v>9.584582131748057</v>
       </c>
       <c r="E12">
-        <v>13.44094562310911</v>
+        <v>14.09161019837074</v>
       </c>
       <c r="F12">
-        <v>25.53285598741608</v>
+        <v>32.58155854654683</v>
       </c>
       <c r="G12">
-        <v>2.060192239676517</v>
+        <v>3.644362298057509</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.25748077083435</v>
+        <v>19.57933356341279</v>
       </c>
       <c r="J12">
-        <v>6.985154586921781</v>
+        <v>9.920866262627847</v>
       </c>
       <c r="K12">
-        <v>23.10665714062285</v>
+        <v>15.09711494732061</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.4405728437589</v>
+        <v>24.26633910776651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.744190562308185</v>
+        <v>6.86110778730867</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.330141138332856</v>
+        <v>9.579796897014889</v>
       </c>
       <c r="E13">
-        <v>13.4113606505114</v>
+        <v>14.08608614628068</v>
       </c>
       <c r="F13">
-        <v>25.49455248507474</v>
+        <v>32.58170304159873</v>
       </c>
       <c r="G13">
-        <v>2.060540049322214</v>
+        <v>3.644477044510149</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.27991858088229</v>
+        <v>19.5861278848054</v>
       </c>
       <c r="J13">
-        <v>6.976513124531261</v>
+        <v>9.920631352307872</v>
       </c>
       <c r="K13">
-        <v>23.04718528738781</v>
+        <v>15.07206660403763</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.42778381523575</v>
+        <v>24.26990115996956</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.667092518779548</v>
+        <v>6.830079013811375</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.260576459515836</v>
+        <v>9.564208154651054</v>
       </c>
       <c r="E14">
-        <v>13.31464984387994</v>
+        <v>14.06812440660086</v>
       </c>
       <c r="F14">
-        <v>25.37017702426437</v>
+        <v>32.58241126432225</v>
       </c>
       <c r="G14">
-        <v>2.061676073793501</v>
+        <v>3.64485297914213</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.35322676630216</v>
+        <v>19.60838465862156</v>
       </c>
       <c r="J14">
-        <v>6.948390785539753</v>
+        <v>9.919906342138662</v>
       </c>
       <c r="K14">
-        <v>22.85227366300539</v>
+        <v>14.99009600449262</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.38671333141707</v>
+        <v>24.28168208165763</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.619574870748895</v>
+        <v>6.811010378075533</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.217785879550499</v>
+        <v>9.554672902758522</v>
       </c>
       <c r="E15">
-        <v>13.25523755601841</v>
+        <v>14.05716366776998</v>
       </c>
       <c r="F15">
-        <v>25.29440921012845</v>
+        <v>32.58302715558472</v>
       </c>
       <c r="G15">
-        <v>2.062373280224401</v>
+        <v>3.645084573727338</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.39823336316834</v>
+        <v>19.62209370495508</v>
       </c>
       <c r="J15">
-        <v>6.931210835276085</v>
+        <v>9.919493838614736</v>
       </c>
       <c r="K15">
-        <v>22.73214520791194</v>
+        <v>14.93967106798275</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.3620434703984</v>
+        <v>24.28902439783593</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.342778336291712</v>
+        <v>6.700804026119915</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.969831819129192</v>
+        <v>9.500245655117343</v>
       </c>
       <c r="E16">
-        <v>12.9121416209238</v>
+        <v>13.99499875300061</v>
       </c>
       <c r="F16">
-        <v>24.86660219511933</v>
+        <v>32.58934617682368</v>
       </c>
       <c r="G16">
-        <v>2.066390335553566</v>
+        <v>3.646432076982324</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.65775290492581</v>
+        <v>19.70182342171914</v>
       </c>
       <c r="J16">
-        <v>6.833469683004092</v>
+        <v>9.917614748114833</v>
       </c>
       <c r="K16">
-        <v>22.03236326631938</v>
+        <v>14.6474661613386</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.22802015479283</v>
+        <v>24.33303036578985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.168961986723826</v>
+        <v>6.63239608201459</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.815305095452711</v>
+        <v>9.46706103545187</v>
       </c>
       <c r="E17">
-        <v>12.69936768155781</v>
+        <v>13.95745351745174</v>
       </c>
       <c r="F17">
-        <v>24.60987403372758</v>
+        <v>32.59571021054875</v>
       </c>
       <c r="G17">
-        <v>2.068874856059499</v>
+        <v>3.647276907895757</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.81841710616442</v>
+        <v>19.75177990964927</v>
       </c>
       <c r="J17">
-        <v>6.774151987417457</v>
+        <v>9.916895275080545</v>
       </c>
       <c r="K17">
-        <v>21.59287853123725</v>
+        <v>14.46538974312904</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.15223191117014</v>
+        <v>24.36174492305637</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.067513165042948</v>
+        <v>6.592768568931913</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.725550673506726</v>
+        <v>9.448054301299218</v>
       </c>
       <c r="E18">
-        <v>12.57616386167097</v>
+        <v>13.93608110051558</v>
       </c>
       <c r="F18">
-        <v>24.46431919196681</v>
+        <v>32.60028398697025</v>
       </c>
       <c r="G18">
-        <v>2.07031164117509</v>
+        <v>3.647769530552681</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.91137261523825</v>
+        <v>19.78089835958332</v>
       </c>
       <c r="J18">
-        <v>6.740274475155976</v>
+        <v>9.916640943768567</v>
       </c>
       <c r="K18">
-        <v>21.33633779206184</v>
+        <v>14.35965876453277</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.11095199747546</v>
+        <v>24.37889065919096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.032911151365035</v>
+        <v>6.579304361851587</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.695012471748264</v>
+        <v>9.441633185944742</v>
       </c>
       <c r="E19">
-        <v>12.53431028148509</v>
+        <v>13.92888351054201</v>
       </c>
       <c r="F19">
-        <v>24.41539962716175</v>
+        <v>32.60198936997083</v>
       </c>
       <c r="G19">
-        <v>2.070799474812951</v>
+        <v>3.647937476140052</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.94294044919449</v>
+        <v>19.79082353291264</v>
       </c>
       <c r="J19">
-        <v>6.728845831430755</v>
+        <v>9.91658224727979</v>
       </c>
       <c r="K19">
-        <v>21.24883021824477</v>
+        <v>14.32369038073052</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.09736729941671</v>
+        <v>24.38480394031832</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.187617614616993</v>
+        <v>6.639707612050133</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.831845571114529</v>
+        <v>9.470585407547185</v>
       </c>
       <c r="E20">
-        <v>12.7221034192106</v>
+        <v>13.96142735426091</v>
       </c>
       <c r="F20">
-        <v>24.63698513596062</v>
+        <v>32.59493819946728</v>
       </c>
       <c r="G20">
-        <v>2.068609579460851</v>
+        <v>3.647186281334857</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.80125787882976</v>
+        <v>19.74642214916504</v>
       </c>
       <c r="J20">
-        <v>6.780441665234638</v>
+        <v>9.916955363116578</v>
       </c>
       <c r="K20">
-        <v>21.64005132077678</v>
+        <v>14.48487685132059</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.16005928192942</v>
+        <v>24.35862298258521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.689799107704069</v>
+        <v>6.839206031645507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.281046898858714</v>
+        <v>9.568784201472759</v>
       </c>
       <c r="E21">
-        <v>13.34309253072883</v>
+        <v>14.07339161977321</v>
       </c>
       <c r="F21">
-        <v>25.40662250591794</v>
+        <v>32.58216529331402</v>
       </c>
       <c r="G21">
-        <v>2.061342114732353</v>
+        <v>3.644742282247218</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.33167291929455</v>
+        <v>19.60183144369618</v>
       </c>
       <c r="J21">
-        <v>6.956641473689401</v>
+        <v>9.920112714332019</v>
       </c>
       <c r="K21">
-        <v>22.90967793406597</v>
+        <v>15.01421783250677</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.39867496785478</v>
+        <v>24.27819543892498</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.00489362682559</v>
+        <v>6.966821214036613</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.56659222866505</v>
+        <v>9.633571532586615</v>
       </c>
       <c r="E22">
-        <v>13.74120615684812</v>
+        <v>14.14843204119341</v>
       </c>
       <c r="F22">
-        <v>25.92825279649172</v>
+        <v>32.58196518353595</v>
       </c>
       <c r="G22">
-        <v>2.056654133134136</v>
+        <v>3.643204281174936</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.02941892545695</v>
+        <v>19.51074260738073</v>
       </c>
       <c r="J22">
-        <v>7.073858471498689</v>
+        <v>9.92359066818312</v>
       </c>
       <c r="K22">
-        <v>23.70631251340052</v>
+        <v>15.35060304065132</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.57628369328397</v>
+        <v>24.23127382491205</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.837919636641047</v>
+        <v>6.898976098336389</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.414936096983379</v>
+        <v>9.598942728268332</v>
       </c>
       <c r="E23">
-        <v>13.52945036976742</v>
+        <v>14.10821664802681</v>
       </c>
       <c r="F23">
-        <v>25.64815086564232</v>
+        <v>32.58132598623772</v>
       </c>
       <c r="G23">
-        <v>2.05915092005657</v>
+        <v>3.644019732963234</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.19032240857986</v>
+        <v>19.55904727820774</v>
       </c>
       <c r="J23">
-        <v>7.011112549659757</v>
+        <v>9.921605303349065</v>
       </c>
       <c r="K23">
-        <v>23.2841474589701</v>
+        <v>15.17197131225335</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.47945858147304</v>
+        <v>24.25579891288568</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.17918813819694</v>
+        <v>6.636402997220897</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.824370468935397</v>
+        <v>9.468991814909323</v>
       </c>
       <c r="E24">
-        <v>12.71182731952073</v>
+        <v>13.95963011839696</v>
       </c>
       <c r="F24">
-        <v>24.62472184579109</v>
+        <v>32.5952843756295</v>
       </c>
       <c r="G24">
-        <v>2.068729484764394</v>
+        <v>3.647227232049604</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.8090137331257</v>
+        <v>19.74884315335813</v>
       </c>
       <c r="J24">
-        <v>6.77759740004867</v>
+        <v>9.916927701040231</v>
       </c>
       <c r="K24">
-        <v>21.61873657639203</v>
+        <v>14.47607000187377</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.15651340150215</v>
+        <v>24.36003242687948</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.412309988680077</v>
+        <v>6.342620304461604</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.154164936422559</v>
+        <v>9.33194451829779</v>
       </c>
       <c r="E25">
-        <v>11.79889374266359</v>
+        <v>13.80792907702858</v>
       </c>
       <c r="F25">
-        <v>23.60147049237937</v>
+        <v>32.64524041991208</v>
       </c>
       <c r="G25">
-        <v>2.079361667496759</v>
+        <v>3.650943348893144</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.49737121526878</v>
+        <v>19.96829131450808</v>
       </c>
       <c r="J25">
-        <v>6.534968638912948</v>
+        <v>9.91798185167532</v>
       </c>
       <c r="K25">
-        <v>19.67841244389845</v>
+        <v>13.68746149291996</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.89579687303503</v>
+        <v>24.49652509558863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.118831537812738</v>
+        <v>7.79932323280434</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.23425552603333</v>
+        <v>7.634116456844914</v>
       </c>
       <c r="E2">
-        <v>13.70416625564193</v>
+        <v>11.10331654094942</v>
       </c>
       <c r="F2">
-        <v>32.7118824949064</v>
+        <v>22.91784663150218</v>
       </c>
       <c r="G2">
-        <v>3.653902384284682</v>
+        <v>2.087485350380625</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.14265615807181</v>
+        <v>13.02355637053899</v>
       </c>
       <c r="J2">
-        <v>9.924023894408338</v>
+        <v>6.364748369783629</v>
       </c>
       <c r="K2">
-        <v>13.07806819628019</v>
+        <v>18.12438758214997</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.61753418735297</v>
+        <v>15.77268449127891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.963427134343079</v>
+        <v>7.354004279657176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.170319485480816</v>
+        <v>7.266541521534607</v>
       </c>
       <c r="E3">
-        <v>13.63905738314455</v>
+        <v>10.6196382382683</v>
       </c>
       <c r="F3">
-        <v>32.7755648742236</v>
+        <v>22.49801918820635</v>
       </c>
       <c r="G3">
-        <v>3.656048007801576</v>
+        <v>2.093191957032885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.26886351966719</v>
+        <v>13.39287588686439</v>
       </c>
       <c r="J3">
-        <v>9.931410198249292</v>
+        <v>6.254898370680297</v>
       </c>
       <c r="K3">
-        <v>12.64952747064381</v>
+        <v>16.99253009101923</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.71224037871714</v>
+        <v>15.7286215791329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.866506434745174</v>
+        <v>7.066000848408517</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.132266314600624</v>
+        <v>7.034028660744053</v>
       </c>
       <c r="E4">
-        <v>13.60173273520734</v>
+        <v>10.31758817701844</v>
       </c>
       <c r="F4">
-        <v>32.82375679531887</v>
+        <v>22.26153186799592</v>
       </c>
       <c r="G4">
-        <v>3.657435015174226</v>
+        <v>2.096800212076286</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.35034102370425</v>
+        <v>13.62612344719137</v>
       </c>
       <c r="J4">
-        <v>9.937570432008439</v>
+        <v>6.190250737835633</v>
       </c>
       <c r="K4">
-        <v>12.37966002121385</v>
+        <v>16.25872773307415</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.77661982066844</v>
+        <v>15.71972330806389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.826688235225682</v>
+        <v>6.945008888484088</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.117074653519513</v>
+        <v>6.937679715355408</v>
       </c>
       <c r="E5">
-        <v>13.5872014147616</v>
+        <v>10.19339906621354</v>
       </c>
       <c r="F5">
-        <v>32.84567430250678</v>
+        <v>22.17047532791847</v>
       </c>
       <c r="G5">
-        <v>3.658017786141091</v>
+        <v>2.098297567757594</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.38454883317966</v>
+        <v>13.72283391282081</v>
       </c>
       <c r="J5">
-        <v>9.940489595169689</v>
+        <v>6.164622589077125</v>
       </c>
       <c r="K5">
-        <v>12.2681464675158</v>
+        <v>15.94994637138418</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.80441632317567</v>
+        <v>15.72046902408583</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.820058668959794</v>
+        <v>6.924700438996935</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.114571492559245</v>
+        <v>6.921588322521796</v>
       </c>
       <c r="E6">
-        <v>13.58482982320144</v>
+        <v>10.17271655608826</v>
       </c>
       <c r="F6">
-        <v>32.84945110662441</v>
+        <v>22.15567485974471</v>
       </c>
       <c r="G6">
-        <v>3.658115616702612</v>
+        <v>2.098547851305252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.3902898009232</v>
+        <v>13.73899374483094</v>
       </c>
       <c r="J6">
-        <v>9.940999015138296</v>
+        <v>6.160410638842858</v>
       </c>
       <c r="K6">
-        <v>12.24954148333583</v>
+        <v>15.89808532693019</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.80912606215903</v>
+        <v>15.72085113929593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.865970661870869</v>
+        <v>7.064383741842223</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.132060141560402</v>
+        <v>7.032735567041764</v>
       </c>
       <c r="E7">
-        <v>13.60153399748907</v>
+        <v>10.31591753237426</v>
       </c>
       <c r="F7">
-        <v>32.82404316521678</v>
+        <v>22.26028239842385</v>
       </c>
       <c r="G7">
-        <v>3.657442803476379</v>
+        <v>2.096820295845212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.35079828894634</v>
+        <v>13.62742095721938</v>
       </c>
       <c r="J7">
-        <v>9.937608145399492</v>
+        <v>6.189902192610012</v>
       </c>
       <c r="K7">
-        <v>12.37816213278513</v>
+        <v>16.25460284800361</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.77698837899966</v>
+        <v>15.71971592324379</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.06559209219463</v>
+        <v>7.648821214213264</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.211968235785067</v>
+        <v>7.508856528061772</v>
       </c>
       <c r="E8">
-        <v>13.68117354424795</v>
+        <v>10.93769359232355</v>
       </c>
       <c r="F8">
-        <v>32.73194943819577</v>
+        <v>22.7686542064967</v>
       </c>
       <c r="G8">
-        <v>3.654627786661323</v>
+        <v>2.089431767843488</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.18534693898102</v>
+        <v>13.14957011265606</v>
       </c>
       <c r="J8">
-        <v>9.926233567558622</v>
+        <v>6.326298398080407</v>
       </c>
       <c r="K8">
-        <v>12.93179533244191</v>
+        <v>17.74218731138149</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.64889293539322</v>
+        <v>15.75360833212317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.44285750013217</v>
+        <v>8.678161283514148</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.377644497397455</v>
+        <v>8.384210749241928</v>
       </c>
       <c r="E9">
-        <v>13.85783390526089</v>
+        <v>12.11030774476442</v>
       </c>
       <c r="F9">
-        <v>32.6237620485286</v>
+        <v>23.93533027934193</v>
       </c>
       <c r="G9">
-        <v>3.649657110087038</v>
+        <v>2.075736700959725</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.89239192791281</v>
+        <v>12.2625775128074</v>
       </c>
       <c r="J9">
-        <v>9.916809900200848</v>
+        <v>6.615422904336289</v>
       </c>
       <c r="K9">
-        <v>13.95785667248827</v>
+        <v>20.35140034329443</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.44734872922013</v>
+        <v>15.97246902145895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.708570815089224</v>
+        <v>9.362412233879997</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.504042758453933</v>
+        <v>8.987344897568036</v>
       </c>
       <c r="E10">
-        <v>13.99931269758982</v>
+        <v>12.93630759421942</v>
       </c>
       <c r="F10">
-        <v>32.58874382072103</v>
+        <v>24.89618183518883</v>
       </c>
       <c r="G10">
-        <v>3.646336582321922</v>
+        <v>2.066107861205278</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.69617512186268</v>
+        <v>11.63949320976356</v>
       </c>
       <c r="J10">
-        <v>9.917718438226348</v>
+        <v>6.840270528789103</v>
       </c>
       <c r="K10">
-        <v>14.66810387590947</v>
+        <v>22.08200303290879</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.32983930236351</v>
+        <v>16.23698512359025</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.826436198147164</v>
+        <v>9.658023064424162</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.56238392400606</v>
+        <v>9.252404261316777</v>
       </c>
       <c r="E11">
-        <v>14.06602591469744</v>
+        <v>13.30329869230922</v>
       </c>
       <c r="F11">
-        <v>32.58251824237121</v>
+        <v>25.35566322726581</v>
       </c>
       <c r="G11">
-        <v>3.644897188565073</v>
+        <v>2.061809319724001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.61100173081508</v>
+        <v>11.36182726419524</v>
       </c>
       <c r="J11">
-        <v>9.919825584772003</v>
+        <v>6.945102730343377</v>
       </c>
       <c r="K11">
-        <v>14.98046594786861</v>
+        <v>22.82934532000139</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.2830786770798</v>
+        <v>16.38196690720899</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.870597011976444</v>
+        <v>9.767714611084896</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.584582131748057</v>
+        <v>9.351399913965276</v>
       </c>
       <c r="E12">
-        <v>14.09161019837074</v>
+        <v>13.44094562310911</v>
       </c>
       <c r="F12">
-        <v>32.58155854654683</v>
+        <v>25.53285598741594</v>
       </c>
       <c r="G12">
-        <v>3.644362298057509</v>
+        <v>2.060192239676249</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.57933356341279</v>
+        <v>11.25748077083432</v>
       </c>
       <c r="J12">
-        <v>9.920866262627847</v>
+        <v>6.985154586921763</v>
       </c>
       <c r="K12">
-        <v>15.09711494732061</v>
+        <v>23.1066571406229</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.26633910776651</v>
+        <v>16.44057284375875</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.86110778730867</v>
+        <v>9.744190562308194</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.579796897014889</v>
+        <v>9.330141138332881</v>
       </c>
       <c r="E13">
-        <v>14.08608614628068</v>
+        <v>13.41136065051142</v>
       </c>
       <c r="F13">
-        <v>32.58170304159873</v>
+        <v>25.49455248507473</v>
       </c>
       <c r="G13">
-        <v>3.644477044510149</v>
+        <v>2.060540049322348</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.5861278848054</v>
+        <v>11.27991858088229</v>
       </c>
       <c r="J13">
-        <v>9.920631352307872</v>
+        <v>6.976513124531272</v>
       </c>
       <c r="K13">
-        <v>15.07206660403763</v>
+        <v>23.04718528738783</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.26990115996956</v>
+        <v>16.4277838152357</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.830079013811375</v>
+        <v>9.667092518779574</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.564208154651054</v>
+        <v>9.26057645951585</v>
       </c>
       <c r="E14">
-        <v>14.06812440660086</v>
+        <v>13.31464984387994</v>
       </c>
       <c r="F14">
-        <v>32.58241126432225</v>
+        <v>25.37017702426418</v>
       </c>
       <c r="G14">
-        <v>3.64485297914213</v>
+        <v>2.061676073793368</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.60838465862156</v>
+        <v>11.35322676630204</v>
       </c>
       <c r="J14">
-        <v>9.919906342138662</v>
+        <v>6.948390785539697</v>
       </c>
       <c r="K14">
-        <v>14.99009600449262</v>
+        <v>22.85227366300547</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.28168208165763</v>
+        <v>16.38671333141688</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.811010378075533</v>
+        <v>9.619574870748895</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.554672902758522</v>
+        <v>9.217785879550512</v>
       </c>
       <c r="E15">
-        <v>14.05716366776998</v>
+        <v>13.25523755601845</v>
       </c>
       <c r="F15">
-        <v>32.58302715558472</v>
+        <v>25.29440921012835</v>
       </c>
       <c r="G15">
-        <v>3.645084573727338</v>
+        <v>2.062373280224401</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.62209370495508</v>
+        <v>11.39823336316834</v>
       </c>
       <c r="J15">
-        <v>9.919493838614736</v>
+        <v>6.931210835276083</v>
       </c>
       <c r="K15">
-        <v>14.93967106798275</v>
+        <v>22.73214520791208</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.28902439783593</v>
+        <v>16.36204347039827</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.700804026119915</v>
+        <v>9.342778336291707</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.500245655117343</v>
+        <v>8.96983181912921</v>
       </c>
       <c r="E16">
-        <v>13.99499875300061</v>
+        <v>12.91214162092383</v>
       </c>
       <c r="F16">
-        <v>32.58934617682368</v>
+        <v>24.8666021951193</v>
       </c>
       <c r="G16">
-        <v>3.646432076982324</v>
+        <v>2.066390335553701</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.70182342171914</v>
+        <v>11.65775290492575</v>
       </c>
       <c r="J16">
-        <v>9.917614748114833</v>
+        <v>6.833469683004127</v>
       </c>
       <c r="K16">
-        <v>14.6474661613386</v>
+        <v>22.03236326631933</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.33303036578985</v>
+        <v>16.2280201547928</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.63239608201459</v>
+        <v>9.168961986723879</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.46706103545187</v>
+        <v>8.815305095452635</v>
       </c>
       <c r="E17">
-        <v>13.95745351745174</v>
+        <v>12.69936768155778</v>
       </c>
       <c r="F17">
-        <v>32.59571021054875</v>
+        <v>24.60987403372734</v>
       </c>
       <c r="G17">
-        <v>3.647276907895757</v>
+        <v>2.068874856059632</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.75177990964927</v>
+        <v>11.81841710616419</v>
       </c>
       <c r="J17">
-        <v>9.916895275080545</v>
+        <v>6.774151987417445</v>
       </c>
       <c r="K17">
-        <v>14.46538974312904</v>
+        <v>21.59287853123735</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.36174492305637</v>
+        <v>16.15223191116992</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.592768568931913</v>
+        <v>9.067513165042932</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.448054301299218</v>
+        <v>8.725550673506792</v>
       </c>
       <c r="E18">
-        <v>13.93608110051558</v>
+        <v>12.57616386167095</v>
       </c>
       <c r="F18">
-        <v>32.60028398697025</v>
+        <v>24.46431919196673</v>
       </c>
       <c r="G18">
-        <v>3.647769530552681</v>
+        <v>2.070311641175092</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.78089835958332</v>
+        <v>11.91137261523816</v>
       </c>
       <c r="J18">
-        <v>9.916640943768567</v>
+        <v>6.740274475155942</v>
       </c>
       <c r="K18">
-        <v>14.35965876453277</v>
+        <v>21.33633779206187</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.37889065919096</v>
+        <v>16.11095199747535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.579304361851587</v>
+        <v>9.032911151365051</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.441633185944742</v>
+        <v>8.695012471748276</v>
       </c>
       <c r="E19">
-        <v>13.92888351054201</v>
+        <v>12.5343102814851</v>
       </c>
       <c r="F19">
-        <v>32.60198936997083</v>
+        <v>24.41539962716165</v>
       </c>
       <c r="G19">
-        <v>3.647937476140052</v>
+        <v>2.070799474812951</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.79082353291264</v>
+        <v>11.94294044919432</v>
       </c>
       <c r="J19">
-        <v>9.91658224727979</v>
+        <v>6.728845831430784</v>
       </c>
       <c r="K19">
-        <v>14.32369038073052</v>
+        <v>21.24883021824483</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.38480394031832</v>
+        <v>16.09736729941658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.639707612050133</v>
+        <v>9.187617614616958</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.470585407547185</v>
+        <v>8.831845571114545</v>
       </c>
       <c r="E20">
-        <v>13.96142735426091</v>
+        <v>12.72210341921062</v>
       </c>
       <c r="F20">
-        <v>32.59493819946728</v>
+        <v>24.6369851359606</v>
       </c>
       <c r="G20">
-        <v>3.647186281334857</v>
+        <v>2.068609579461119</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.74642214916504</v>
+        <v>11.80125787882973</v>
       </c>
       <c r="J20">
-        <v>9.916955363116578</v>
+        <v>6.78044166523464</v>
       </c>
       <c r="K20">
-        <v>14.48487685132059</v>
+        <v>21.64005132077681</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.35862298258521</v>
+        <v>16.16005928192935</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.839206031645507</v>
+        <v>9.689799107704067</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.568784201472759</v>
+        <v>9.281046898858705</v>
       </c>
       <c r="E21">
-        <v>14.07339161977321</v>
+        <v>13.34309253072883</v>
       </c>
       <c r="F21">
-        <v>32.58216529331402</v>
+        <v>25.40662250591785</v>
       </c>
       <c r="G21">
-        <v>3.644742282247218</v>
+        <v>2.061342114732619</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.60183144369618</v>
+        <v>11.33167291929448</v>
       </c>
       <c r="J21">
-        <v>9.920112714332019</v>
+        <v>6.956641473689384</v>
       </c>
       <c r="K21">
-        <v>15.01421783250677</v>
+        <v>22.90967793406603</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.27819543892498</v>
+        <v>16.39867496785467</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.966821214036613</v>
+        <v>10.0048936268256</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.633571532586615</v>
+        <v>9.56659222866505</v>
       </c>
       <c r="E22">
-        <v>14.14843204119341</v>
+        <v>13.74120615684814</v>
       </c>
       <c r="F22">
-        <v>32.58196518353595</v>
+        <v>25.9282527964917</v>
       </c>
       <c r="G22">
-        <v>3.643204281174936</v>
+        <v>2.056654133134137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.51074260738073</v>
+        <v>11.02941892545695</v>
       </c>
       <c r="J22">
-        <v>9.92359066818312</v>
+        <v>7.073858471498709</v>
       </c>
       <c r="K22">
-        <v>15.35060304065132</v>
+        <v>23.70631251340051</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.23127382491205</v>
+        <v>16.57628369328395</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.898976098336389</v>
+        <v>9.837919636641027</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.598942728268332</v>
+        <v>9.414936096983356</v>
       </c>
       <c r="E23">
-        <v>14.10821664802681</v>
+        <v>13.52945036976743</v>
       </c>
       <c r="F23">
-        <v>32.58132598623772</v>
+        <v>25.64815086564224</v>
       </c>
       <c r="G23">
-        <v>3.644019732963234</v>
+        <v>2.059150920056438</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.55904727820774</v>
+        <v>11.19032240857982</v>
       </c>
       <c r="J23">
-        <v>9.921605303349065</v>
+        <v>7.011112549659744</v>
       </c>
       <c r="K23">
-        <v>15.17197131225335</v>
+        <v>23.28414745897017</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.25579891288568</v>
+        <v>16.47945858147295</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.636402997220897</v>
+        <v>9.179188138196913</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.468991814909323</v>
+        <v>8.824370468935403</v>
       </c>
       <c r="E24">
-        <v>13.95963011839696</v>
+        <v>12.71182731952077</v>
       </c>
       <c r="F24">
-        <v>32.5952843756295</v>
+        <v>24.62472184579102</v>
       </c>
       <c r="G24">
-        <v>3.647227232049604</v>
+        <v>2.068729484764391</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.74884315335813</v>
+        <v>11.8090137331257</v>
       </c>
       <c r="J24">
-        <v>9.916927701040231</v>
+        <v>6.777597400048693</v>
       </c>
       <c r="K24">
-        <v>14.47607000187377</v>
+        <v>21.61873657639207</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.36003242687948</v>
+        <v>16.15651340150205</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.342620304461604</v>
+        <v>8.412309988680148</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.33194451829779</v>
+        <v>8.154164936422536</v>
       </c>
       <c r="E25">
-        <v>13.80792907702858</v>
+        <v>11.79889374266362</v>
       </c>
       <c r="F25">
-        <v>32.64524041991208</v>
+        <v>23.60147049237917</v>
       </c>
       <c r="G25">
-        <v>3.650943348893144</v>
+        <v>2.079361667497027</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.96829131450808</v>
+        <v>12.49737121526852</v>
       </c>
       <c r="J25">
-        <v>9.91798185167532</v>
+        <v>6.534968638912988</v>
       </c>
       <c r="K25">
-        <v>13.68746149291996</v>
+        <v>19.6784124438985</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.49652509558863</v>
+        <v>15.89579687303482</v>
       </c>
     </row>
   </sheetData>
